--- a/localfile/N1_09_Traffic Count and Revenue.xlsx
+++ b/localfile/N1_09_Traffic Count and Revenue.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="7425" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17340" windowHeight="8775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Traffic Count LastYear" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="39">
   <si>
     <t>NEW YORK STATE THRUWAY AUTHORITY</t>
   </si>
@@ -34,85 +34,115 @@
     <t>TRAFFIC COUNT BY CLASS</t>
   </si>
   <si>
+    <t>Non EZ</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>3L</t>
+  </si>
+  <si>
+    <t>4L</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
+    <t>3H</t>
+  </si>
+  <si>
+    <t>4H</t>
+  </si>
+  <si>
+    <t>5H</t>
+  </si>
+  <si>
+    <t>6H</t>
+  </si>
+  <si>
+    <t>7H</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>EZ AMS</t>
+  </si>
+  <si>
+    <t>Commuter</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>Resident</t>
+  </si>
+  <si>
+    <t>Green Discount</t>
+  </si>
+  <si>
+    <t>Motor Cycle 2L</t>
+  </si>
+  <si>
+    <t>Motor Cycle 3L</t>
+  </si>
+  <si>
+    <t>Motor Cycle 4L</t>
+  </si>
+  <si>
+    <t>Motor Home 2H</t>
+  </si>
+  <si>
+    <t>Motor Home 3H</t>
+  </si>
+  <si>
+    <t>Motor Home 4H</t>
+  </si>
+  <si>
+    <t>5S</t>
+  </si>
+  <si>
+    <t>6S</t>
+  </si>
+  <si>
+    <t>7S</t>
+  </si>
+  <si>
+    <t>Towing</t>
+  </si>
+  <si>
+    <t>Non-Revenue</t>
+  </si>
+  <si>
+    <t>Towing Discount 3 axles</t>
+  </si>
+  <si>
+    <t>Towing Discount 4 axles</t>
+  </si>
+  <si>
+    <t>Towing Discount 5 axles</t>
+  </si>
+  <si>
+    <t>EZ CAPS</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
     <t>Sunday</t>
-  </si>
-  <si>
-    <t>Non EZ</t>
-  </si>
-  <si>
-    <t>2L</t>
-  </si>
-  <si>
-    <t>3L</t>
-  </si>
-  <si>
-    <t>4L</t>
-  </si>
-  <si>
-    <t>2H</t>
-  </si>
-  <si>
-    <t>3H</t>
-  </si>
-  <si>
-    <t>4H</t>
-  </si>
-  <si>
-    <t>5H</t>
-  </si>
-  <si>
-    <t>6H</t>
-  </si>
-  <si>
-    <t>7H</t>
-  </si>
-  <si>
-    <t>Sub Total</t>
-  </si>
-  <si>
-    <t>EZ AMS</t>
-  </si>
-  <si>
-    <t>Commuter</t>
-  </si>
-  <si>
-    <t>MOV</t>
-  </si>
-  <si>
-    <t>Green Discount</t>
-  </si>
-  <si>
-    <t>Motor Cycle 2L</t>
-  </si>
-  <si>
-    <t>5S</t>
-  </si>
-  <si>
-    <t>6S</t>
-  </si>
-  <si>
-    <t>Non-Revenue</t>
-  </si>
-  <si>
-    <t>EZ CAPS</t>
-  </si>
-  <si>
-    <t>7S</t>
-  </si>
-  <si>
-    <t>TOTALS</t>
-  </si>
-  <si>
-    <t>Passenger</t>
-  </si>
-  <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Saturday</t>
   </si>
 </sst>
 </file>
@@ -432,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,399 +482,627 @@
       <c r="A3" s="1">
         <v>43647</v>
       </c>
-      <c r="C3" s="1">
-        <v>43647</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="2">
-        <v>44040</v>
-      </c>
       <c r="D5" s="2">
         <v>44040</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>8717</v>
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
       </c>
       <c r="D7">
         <v>8717</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>39</v>
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
       </c>
       <c r="D8">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>51</v>
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
       </c>
       <c r="D9">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>313</v>
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
       </c>
       <c r="D10">
         <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>68</v>
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
       </c>
       <c r="D11">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>58</v>
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
       </c>
       <c r="D12">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>735</v>
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
       </c>
       <c r="D13">
         <v>735</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>32</v>
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
       </c>
       <c r="D14">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>28</v>
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
       </c>
       <c r="D15">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>10041</v>
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
       </c>
       <c r="D16">
         <v>10041</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>10604</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
       </c>
       <c r="D17">
         <v>10604</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>940</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
       </c>
       <c r="D18">
         <v>940</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
         <v>82</v>
       </c>
-      <c r="D19">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
         <v>5</v>
       </c>
-      <c r="D20">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>40116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>40116</v>
-      </c>
-      <c r="D21">
-        <v>40116</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>103</v>
-      </c>
-      <c r="D22">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23">
+      <c r="D26">
         <v>142</v>
       </c>
-      <c r="D23">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>58172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>1619</v>
-      </c>
-      <c r="D24">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>530</v>
-      </c>
-      <c r="D25">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>377</v>
-      </c>
-      <c r="D26">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>2723</v>
-      </c>
-      <c r="D27">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>400</v>
-      </c>
-      <c r="D28">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>113</v>
-      </c>
-      <c r="D29">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>71</v>
-      </c>
-      <c r="D30">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>43</v>
-      </c>
-      <c r="D31">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>56</v>
-      </c>
-      <c r="D32">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58">
+        <v>70986</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>10604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63">
+        <v>9794</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64">
         <v>248</v>
       </c>
-      <c r="D33">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>58172</v>
-      </c>
-      <c r="D34">
-        <v>58172</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>142</v>
-      </c>
-      <c r="D35">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>203</v>
-      </c>
-      <c r="D37">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>138</v>
-      </c>
-      <c r="D38">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>218</v>
-      </c>
-      <c r="D39">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40">
-        <v>1430</v>
-      </c>
-      <c r="D40">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41">
-        <v>457</v>
-      </c>
-      <c r="D41">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42">
-        <v>114</v>
-      </c>
-      <c r="D42">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>33</v>
       </c>
-      <c r="D43">
+      <c r="B65" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44">
-        <v>23</v>
-      </c>
-      <c r="D44">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45">
-        <v>12</v>
-      </c>
-      <c r="D45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46">
-        <v>2773</v>
-      </c>
-      <c r="D46">
-        <v>2773</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47">
-        <v>70986</v>
-      </c>
-      <c r="D47">
-        <v>70986</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48">
-        <v>10604</v>
-      </c>
-      <c r="D48">
-        <v>10604</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49">
-        <v>940</v>
-      </c>
-      <c r="D49">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <v>49400</v>
-      </c>
-      <c r="D50">
-        <v>49400</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51">
-        <v>9794</v>
-      </c>
-      <c r="D51">
-        <v>9794</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52">
-        <v>248</v>
-      </c>
-      <c r="D52">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53">
-        <v>70986</v>
-      </c>
-      <c r="D53">
+      <c r="D65">
         <v>70986</v>
       </c>
     </row>
@@ -855,11 +1113,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -874,18 +1130,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44044</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44044</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A3" s="1">
         <v>44044</v>
       </c>
     </row>
@@ -898,19 +1143,19 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
       </c>
       <c r="C7">
         <v>11703</v>
@@ -921,10 +1166,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>56</v>
@@ -935,10 +1180,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>63</v>
@@ -949,10 +1194,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>213</v>
@@ -963,10 +1208,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>23</v>
@@ -977,10 +1222,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>27</v>
@@ -991,10 +1236,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>317</v>
@@ -1005,10 +1250,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -1019,10 +1264,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1033,10 +1278,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>12412</v>
@@ -1047,10 +1292,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
       </c>
       <c r="C17">
         <v>5347</v>
@@ -1061,10 +1306,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>533</v>
@@ -1075,506 +1320,585 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>73</v>
-      </c>
-      <c r="D19">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>49529</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>43976</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>169</v>
-      </c>
-      <c r="D22">
-        <v>43976</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>205</v>
-      </c>
-      <c r="D23">
-        <v>202</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>594</v>
+        <v>49529</v>
       </c>
       <c r="D24">
-        <v>186</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="D26">
-        <v>401</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>875</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>117</v>
-      </c>
-      <c r="D28">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29">
-        <v>19</v>
-      </c>
-      <c r="D29">
-        <v>1034</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>594</v>
       </c>
       <c r="D30">
-        <v>85</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>246</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>113</v>
+        <v>875</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C34">
-        <v>57953</v>
+        <v>117</v>
       </c>
       <c r="D34">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
         <v>22</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>40</v>
-      </c>
-      <c r="D35">
-        <v>50812</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C38">
-        <v>32</v>
-      </c>
-      <c r="D38">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39">
-        <v>57</v>
-      </c>
-      <c r="D39">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C40">
-        <v>658</v>
+        <v>113</v>
       </c>
       <c r="D40">
-        <v>696</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41">
-        <v>126</v>
-      </c>
-      <c r="D41">
-        <v>126</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42">
-        <v>34</v>
-      </c>
-      <c r="D42">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>57953</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>50812</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46">
-        <v>992</v>
-      </c>
-      <c r="D46">
-        <v>993</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>71357</v>
-      </c>
-      <c r="D47">
-        <v>62051</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>5347</v>
+        <v>31</v>
       </c>
       <c r="D48">
-        <v>3954</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>533</v>
+        <v>32</v>
       </c>
       <c r="D49">
-        <v>495</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>61858</v>
+        <v>57</v>
       </c>
       <c r="D50">
-        <v>54149</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>3506</v>
+        <v>658</v>
       </c>
       <c r="D51">
-        <v>3355</v>
+        <v>696</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
         <v>24</v>
       </c>
-      <c r="B52" t="s">
-        <v>21</v>
-      </c>
       <c r="C52">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D52">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>71357</v>
+        <v>34</v>
       </c>
       <c r="D53">
-        <v>62051</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>992</v>
+      </c>
+      <c r="D57">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58">
         <v>71357</v>
       </c>
-      <c r="D54">
+      <c r="D58">
         <v>70986</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>5347</v>
+      </c>
+      <c r="D59">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>533</v>
+      </c>
+      <c r="D60">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62">
+        <v>61858</v>
+      </c>
+      <c r="D62">
+        <v>54149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63">
+        <v>3506</v>
+      </c>
+      <c r="D63">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64">
+        <v>113</v>
+      </c>
+      <c r="D64">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65">
+        <v>71357</v>
+      </c>
+      <c r="D65">
+        <v>62051</v>
       </c>
     </row>
   </sheetData>
